--- a/PAZy_DB.xlsx
+++ b/PAZy_DB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911C5F4-DE85-4D19-9B68-0C22265DF0C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC61257-3CD1-4AE5-B7FE-FD973EA102F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="ExterneDaten_1" localSheetId="6" hidden="1">NR!$A$1:$E$11</definedName>
     <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">PA!$A$1:$E$14</definedName>
     <definedName name="ExterneDaten_1" localSheetId="5" hidden="1">PBAT!$A$1:$F$17</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">PET!$C$1:$C$44</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">PET!$C$1:$C$56</definedName>
     <definedName name="ExterneDaten_1" localSheetId="3" hidden="1">PLA!$A$1:$F$27</definedName>
     <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">PUR!$A$1:$E$15</definedName>
     <definedName name="ExterneDaten_2" localSheetId="4" hidden="1">PHA!$A$1:$F$20</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="657">
   <si>
     <t>Microbial host/enzyme/gene</t>
   </si>
@@ -1322,15 +1322,9 @@
     <t xml:space="preserve"> BTA-2</t>
   </si>
   <si>
-    <t>T. fusca DSM44342</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TfH42_Cut1</t>
   </si>
   <si>
-    <t>T. fusca (strain YX)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> WSH03-11</t>
   </si>
   <si>
@@ -1340,9 +1334,6 @@
     <t xml:space="preserve"> Tfu_0882</t>
   </si>
   <si>
-    <t>T. fusca</t>
-  </si>
-  <si>
     <t>TfCut_1 (Cut-1.kw3) (only active on 3PET; not on higher polymers!)</t>
   </si>
   <si>
@@ -1367,15 +1358,9 @@
     <t xml:space="preserve"> Tcur0390</t>
   </si>
   <si>
-    <t>T. halotolerans</t>
-  </si>
-  <si>
     <t>Thh_Est</t>
   </si>
   <si>
-    <t>T. alba AHK119</t>
-  </si>
-  <si>
     <t>Est1 (Hydrolase 4)</t>
   </si>
   <si>
@@ -1463,9 +1448,6 @@
     <t>Kingdom</t>
   </si>
   <si>
-    <t>Actinobacteriota; Thermobifida /Thermomonospora fusca</t>
-  </si>
-  <si>
     <t>Candidatus Bathyarchaeota archaeon</t>
   </si>
   <si>
@@ -1478,21 +1460,9 @@
     <t>Marinobacter sp.</t>
   </si>
   <si>
-    <t>T. fusca DSM43793</t>
-  </si>
-  <si>
     <t>Rhizobacter gummiphilus NS21</t>
   </si>
   <si>
-    <t>T. cellulosilytica DSM44535</t>
-  </si>
-  <si>
-    <t>T. curvata DSM43183</t>
-  </si>
-  <si>
-    <t>T. alba DSM43185</t>
-  </si>
-  <si>
     <t>Bacillus subtilis 4P3-11</t>
   </si>
   <si>
@@ -1697,9 +1667,6 @@
     <t>Moraxella sp. TA144</t>
   </si>
   <si>
-    <t>T. fusca NRRL B-8184</t>
-  </si>
-  <si>
     <t>Moesziomyces antarcticus (Pseudozyma/Candida antarctica)</t>
   </si>
   <si>
@@ -1707,6 +1674,366 @@
   </si>
   <si>
     <t>Polyethylene terephthalate</t>
+  </si>
+  <si>
+    <t>Pseudomonas sp. B10 strain 9.2</t>
+  </si>
+  <si>
+    <t>EstB</t>
+  </si>
+  <si>
+    <t>Edwards, 2022</t>
+  </si>
+  <si>
+    <t>WP_085690612</t>
+  </si>
+  <si>
+    <t>MTEPLILQPVKPADACVIWLHGLGADRYDFLPVAEALQESLLSTRFVLPQAPTRPVTINGGYAMPSWYDIKAMSPARAIDRDELEASADRIIELIEEQRSSGIDASRIFLAGFSQGGAVVYHTAFLKWQGPLGGVLALSTYAPTFSDELELSASQQRIPVLSLHGQFDNVVQNSMGRTAYEYLKAHGVTVTWQEYPMEHEVLPEEIRDIGTWLSERLR</t>
+  </si>
+  <si>
+    <t>Thermobifida (Thermomonspora) fusca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TfCut_2 (Cut2-kw3)</t>
+  </si>
+  <si>
+    <t>Rhodococcus equi TB-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no gene identified</t>
+  </si>
+  <si>
+    <t>Comamonas (Delftia) acidovorans TB-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PudA</t>
+  </si>
+  <si>
+    <t>Pseudomonas fluorescens</t>
+  </si>
+  <si>
+    <t>Pestalotiopsis microspora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candida rugosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lip1-Lip5 isoenzymes</t>
+  </si>
+  <si>
+    <t>highly similar to HRB29 locus GBD22443</t>
+  </si>
+  <si>
+    <t>45 kDa urethanase purified</t>
+  </si>
+  <si>
+    <t>not identified</t>
+  </si>
+  <si>
+    <t>Lipase PueA, PueB</t>
+  </si>
+  <si>
+    <t>Esterase PulA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas protegens strain Pf-5 </t>
+  </si>
+  <si>
+    <t>PueA, PueB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 kDa lipase</t>
+  </si>
+  <si>
+    <t>Polyurethane</t>
+  </si>
+  <si>
+    <t>MNSRSLTKAIRFPTILALAGFSVLGACGGSDNDSSSNNQGAPAVAITVAGQVQAVDRLGMRRYFGIPFAAPPVGNLRWMPPAPPQSWAAPLAKTQSNAPCMQTGATDPLRLPNGTEDCLYLDVHAPATGEGPFPVMVWIHGGAFSIGGTITYADPSPLVSKGVIVVNIAYRMGAMGFLGHPSLRAADGTVGNYGIMDQQAALRWVQDNIAAFGGDKSNVTIFGESAGGFSVMTHLASPLSKGLFAKAIVQSGGYGFDRQLTQAQLEAQSTSIVNSALAAAGVSCPTVDAACLRGLSAELVNNQLATAFTTANWSPVPSVDGKVLPKSIKATFVAGENNKVPLVNGSNQDEWSYFVASRELVAGPLTAAQYPSYLQTSLGLPPSLATVYPLTDYGTNTAQQPSLAATAAGTDMHFSCPALNLSKRVLSQATPIFMYEFRDRTAIPSIGRNTISFNQGAGHTYELQYLFNLRDLETAEHRDLQASMARYWTNFARTSNPNNGDPVATSWPAFTGPTKVLGLDVASAGGIRELATFETDHKCNTAWTSLTF</t>
+  </si>
+  <si>
+    <t>MAITLYSYHNLDNGFAVGYQNNGLGLGLPATLVSALIGGSNAQGVIPGIPWNPDSEKPALEAVQAAGWTPISASTLGYTARSMHAAPTLAKNSATARRRPRCWASTMTLATAGNRHQFPRHFRASGKCDHRLHRRCDQRPARRLRAQGLCQELRGGGFWRVAQRLADTPLPGLGGNDVVVSGHSLGGMAVNSMADLSDSTWSGFYKDANYLAYASPTQSAGDKVLNVGYENDPVFRALDGSSFNLSSLGVHDKAHESSTDNIVSLNDHYASSLWNVLPFSILNLPTWVSHLPTGYGDGMTRILDSGFYEQMTRDSTVIVANLSDPARATTWVQDLNRNAEAHKGNTFIIGSDGDDFIKGGRGADFIEGGKGNDTIRDSSGHNTFLFSGQFGNDRVIGYQATDKLVFNDVAGSTDYRDHVKVVGGDTVIGFGTDSVTLVGVSSLSGEGIVIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermobifida (Thermomonospora) curvata DSM43183 </t>
+  </si>
+  <si>
+    <t>Thermobifida (Thermomonospora) curvata DSM43183</t>
+  </si>
+  <si>
+    <t>NylA</t>
+  </si>
+  <si>
+    <t>NylB</t>
+  </si>
+  <si>
+    <t>Paenarthrobacter ureafaciens (previously Arthrobacter guttatus/ Flavobacterium sp.) strain K172</t>
+  </si>
+  <si>
+    <t>NylA on plasmid pOAD1</t>
+  </si>
+  <si>
+    <t>Pseudoxanthomonas sp. TN-N1</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa PAO1</t>
+  </si>
+  <si>
+    <t>Thermomonospora fusca DSM43793</t>
+  </si>
+  <si>
+    <t>Thermomonospora fusca</t>
+  </si>
+  <si>
+    <t>Thermomonospora fusca DSM44342</t>
+  </si>
+  <si>
+    <t>Thermomonospora fusca (strain YX)</t>
+  </si>
+  <si>
+    <t>Thermomonospora fusca NRRL B-8184</t>
+  </si>
+  <si>
+    <t>Thermomonospora cellulosilytica DSM44535</t>
+  </si>
+  <si>
+    <t>Thermomonospora curvata DSM43183</t>
+  </si>
+  <si>
+    <t>Thermomonospora halotolerans</t>
+  </si>
+  <si>
+    <t>Thermomonospora alba AHK119</t>
+  </si>
+  <si>
+    <t>Thermomonospora alba DSM43185</t>
+  </si>
+  <si>
+    <t>Aryl acylamidase</t>
+  </si>
+  <si>
+    <t>NylC</t>
+  </si>
+  <si>
+    <t>NylC on plasmid pOAD1</t>
+  </si>
+  <si>
+    <t>NylB on plasmid pOAD1</t>
+  </si>
+  <si>
+    <t>Hydrolase</t>
+  </si>
+  <si>
+    <t>Agromyces sp. KY5R</t>
+  </si>
+  <si>
+    <t>Polyamide Oligomer</t>
+  </si>
+  <si>
+    <t>Pseudomonas sp. NK87</t>
+  </si>
+  <si>
+    <t>Kocuria sp. KY2</t>
+  </si>
+  <si>
+    <t>Nocardia farcinica IFM 10512</t>
+  </si>
+  <si>
+    <t>Nocardia globerula IFO 13510</t>
+  </si>
+  <si>
+    <t>Pseudomonas chlororaphis</t>
+  </si>
+  <si>
+    <t>5XYG, 5XYO, 5XYP, 5XYQ, 5XYS, 5XYT, 5Y0L, 5Y0M</t>
+  </si>
+  <si>
+    <t>2ZLY, 2ZM2, 2ZM8, 2ZM9</t>
+  </si>
+  <si>
+    <t>Kinoshita, 1975,Kinoshita, 1977, Yasuhira, 2010</t>
+  </si>
+  <si>
+    <t>Yoshioka, 1991</t>
+  </si>
+  <si>
+    <t>Polylactic acid</t>
+  </si>
+  <si>
+    <t>Firmicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermobifida alba AHK119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> serine protease</t>
+  </si>
+  <si>
+    <t>Amycolatopsis sp. strain 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> protease</t>
+  </si>
+  <si>
+    <t>Amycolatopsis (Nocardia) orientalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcaligenes sp. </t>
+  </si>
+  <si>
+    <t>Comamonas acidovorans TB-35</t>
+  </si>
+  <si>
+    <t>Marine metagenome</t>
+  </si>
+  <si>
+    <t>PlaM4</t>
+  </si>
+  <si>
+    <t>PlaM7</t>
+  </si>
+  <si>
+    <t>PlaM9</t>
+  </si>
+  <si>
+    <t>Aspergillus oryzae ATCC42149</t>
+  </si>
+  <si>
+    <t>Est1</t>
+  </si>
+  <si>
+    <t>Paenibacillus amylolyticus TB13</t>
+  </si>
+  <si>
+    <t>Actinomadura keratinilytica T16-1</t>
+  </si>
+  <si>
+    <t>Esterase</t>
+  </si>
+  <si>
+    <t>Rhodopseudomonas palustris RPA1511</t>
+  </si>
+  <si>
+    <t>Alcanivorax borkumensis ABO2449</t>
+  </si>
+  <si>
+    <t>Mainly PUR active esterase</t>
+  </si>
+  <si>
+    <t>Lipase PL</t>
+  </si>
+  <si>
+    <t>PLaA</t>
+  </si>
+  <si>
+    <t>PLAse I (PLase1)</t>
+  </si>
+  <si>
+    <t>PLAse II (PLase2)</t>
+  </si>
+  <si>
+    <t>PLAse III (PLase3)</t>
+  </si>
+  <si>
+    <t>Depolymerase</t>
+  </si>
+  <si>
+    <t>Cutinase</t>
+  </si>
+  <si>
+    <t>Proteinase K</t>
+  </si>
+  <si>
+    <t>Basidiomycota</t>
+  </si>
+  <si>
+    <t>Cryptococcus sp. S-2</t>
+  </si>
+  <si>
+    <t>Cutinase CutL1</t>
+  </si>
+  <si>
+    <t>Protease, Subtilisin, 'Savinase'</t>
+  </si>
+  <si>
+    <t>Protease, Subtilisin</t>
+  </si>
+  <si>
+    <t>Protease, Subtilisin  SubC</t>
+  </si>
+  <si>
+    <t>Esterase,  MGS0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esterase, MGS0010 </t>
+  </si>
+  <si>
+    <t>Esterase, MGS0105</t>
+  </si>
+  <si>
+    <t>EC3.1.1.74</t>
+  </si>
+  <si>
+    <t>Lederbergia lenta</t>
+  </si>
+  <si>
+    <t>Bacillus subtilis</t>
+  </si>
+  <si>
+    <t>Bacillus licheniformis</t>
+  </si>
+  <si>
+    <t>Parengyodontium album</t>
+  </si>
+  <si>
+    <t>Location/comment</t>
+  </si>
+  <si>
+    <t>Polyhydroxyalkanoates</t>
+  </si>
+  <si>
+    <t>Paucimonas lemoignei, PhaZ7</t>
+  </si>
+  <si>
+    <t>Paucimonas lemoignei, PhaZ5</t>
+  </si>
+  <si>
+    <t>Pseudomonas stutzeri, PhaZst</t>
+  </si>
+  <si>
+    <t>4BRS, 4BTV, 4BVJ, 4BVK, 4BVL, 4BYM</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha), phaZ 1-7</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ1</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ2</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ3</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ4</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ5</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ6 (PhaZd1)</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaZ7 (PhaZd2)</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaY1 (PhaZ2)</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator ATC17699, DSM428 (Ralstonia eutropha, Wautersia eutropha) PhaY2</t>
+  </si>
+  <si>
+    <t>Comamonas acidovorans YM1609, PhaZCac</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +2083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1766,12 +2093,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1882,44 +2251,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1935,8 +2266,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{A2E59A8C-27DB-4165-A699-03A5512AD758}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="18" unboundColumnsLeft="2" unboundColumnsRight="10">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="19" unboundColumnsLeft="2" unboundColumnsRight="11">
+    <queryTableFields count="14">
       <queryTableField id="13" dataBound="0" tableColumnId="13"/>
       <queryTableField id="12" dataBound="0" tableColumnId="12"/>
       <queryTableField id="1" name="Microbial host/enzyme/gene" tableColumnId="1"/>
@@ -1950,6 +2281,7 @@
       <queryTableField id="7" dataBound="0" tableColumnId="7"/>
       <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="14" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="18" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
     <queryTableDeletedFields count="5">
       <deletedField name="EC number"/>
@@ -2050,22 +2382,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6382D4D-C469-4EEB-BDC5-0226F89D72AC}" name="Table_0" displayName="Table_0" ref="A1:M44" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M44" xr:uid="{B5BBF0C9-627A-43A9-BD4D-23CEE2356461}"/>
-  <tableColumns count="13">
-    <tableColumn id="13" xr3:uid="{77C993A5-DA3D-4A0A-B6C6-DAAB5C3748CB}" uniqueName="13" name="Kingdom" queryTableFieldId="13" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{AEB6222B-4A5D-4C43-9526-6FD6BCD6ABB8}" uniqueName="12" name="Taxonomical Affiliation" queryTableFieldId="12" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{B7FD72CD-114D-4E95-A386-61D68A5A5DCD}" uniqueName="1" name="Microbial host" queryTableFieldId="1" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{7B498EE2-8ADB-4B80-BFFA-C57EA52C1C76}" uniqueName="11" name="NCBI_Taxonomy_ID" queryTableFieldId="16" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{74C7F6ED-CC8C-44EE-858A-8FA882486FBA}" uniqueName="2" name="Enzyme" queryTableFieldId="2" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{C7725C7C-6F5B-4E38-A0F6-CF471418AF1D}" uniqueName="3" name="Gene" queryTableFieldId="3" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{DE9A56C9-B235-45A5-AF44-4C62B4A00C55}" uniqueName="4" name="EC number" queryTableFieldId="4" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{E730FAC3-EC16-40AA-B43D-B911884297DF}" uniqueName="10" name="Substrate" queryTableFieldId="17" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{378F95D2-4699-47C2-BE57-AA969CC2A93A}" uniqueName="5" name="Reference" queryTableFieldId="5" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{A6093A4D-28E9-4D38-A5A8-EFBE15C39D90}" uniqueName="6" name="GenBank/ UniProt/MGnify" queryTableFieldId="6" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{3C974495-3EAE-4331-8474-B7A5A80F7206}" uniqueName="7" name="PDB_Accession" queryTableFieldId="7" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{0F225976-07E2-4291-A4E2-82B2B54B3BBA}" uniqueName="8" name="NCBI_Accession" queryTableFieldId="8" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{A8592476-B055-4958-A1C7-95B93A996D7E}" uniqueName="9" name="Sequence" queryTableFieldId="14" dataDxfId="34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6382D4D-C469-4EEB-BDC5-0226F89D72AC}" name="Table_0" displayName="Table_0" ref="A1:N108" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N108" xr:uid="{B5BBF0C9-627A-43A9-BD4D-23CEE2356461}"/>
+  <tableColumns count="14">
+    <tableColumn id="13" xr3:uid="{77C993A5-DA3D-4A0A-B6C6-DAAB5C3748CB}" uniqueName="13" name="Kingdom" queryTableFieldId="13" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{AEB6222B-4A5D-4C43-9526-6FD6BCD6ABB8}" uniqueName="12" name="Taxonomical Affiliation" queryTableFieldId="12" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B7FD72CD-114D-4E95-A386-61D68A5A5DCD}" uniqueName="1" name="Microbial host" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{7B498EE2-8ADB-4B80-BFFA-C57EA52C1C76}" uniqueName="11" name="NCBI_Taxonomy_ID" queryTableFieldId="16" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{74C7F6ED-CC8C-44EE-858A-8FA882486FBA}" uniqueName="2" name="Enzyme" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C7725C7C-6F5B-4E38-A0F6-CF471418AF1D}" uniqueName="3" name="Gene" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DE9A56C9-B235-45A5-AF44-4C62B4A00C55}" uniqueName="4" name="EC number" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{E730FAC3-EC16-40AA-B43D-B911884297DF}" uniqueName="10" name="Substrate" queryTableFieldId="17" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{378F95D2-4699-47C2-BE57-AA969CC2A93A}" uniqueName="5" name="Reference" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A6093A4D-28E9-4D38-A5A8-EFBE15C39D90}" uniqueName="6" name="GenBank/ UniProt/MGnify" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3C974495-3EAE-4331-8474-B7A5A80F7206}" uniqueName="7" name="PDB_Accession" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{0F225976-07E2-4291-A4E2-82B2B54B3BBA}" uniqueName="8" name="NCBI_Accession" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A8592476-B055-4958-A1C7-95B93A996D7E}" uniqueName="9" name="Sequence" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{BEC2E162-C09C-48BC-9DC9-28E03D0F82B5}" uniqueName="14" name="Location/comment" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2075,11 +2408,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07F80768-A89D-46EE-A19B-5D577F06BA88}" name="Table_0__2" displayName="Table_0__2" ref="A1:E15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E15" xr:uid="{6B0C0047-D168-4FC0-A6C9-4090D4CB9D64}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C65C9744-A6D3-4CC8-BDC5-0B28FD68DDFB}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{4AFBC12B-DB2F-494C-9D93-978AE2F8DD13}" uniqueName="2" name="Reference" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{CE9FE5E9-5997-4B18-BA75-F036760F89BD}" uniqueName="3" name="GenBank/ UniProt" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{9136C13A-5F12-467B-8D03-54873B085AAF}" uniqueName="4" name="PDB entry" queryTableFieldId="4" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{97528F30-5930-42FF-BDF1-E636B37D4C18}" uniqueName="5" name="NCBI BLAST" queryTableFieldId="5" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{C65C9744-A6D3-4CC8-BDC5-0B28FD68DDFB}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{4AFBC12B-DB2F-494C-9D93-978AE2F8DD13}" uniqueName="2" name="Reference" queryTableFieldId="2" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{CE9FE5E9-5997-4B18-BA75-F036760F89BD}" uniqueName="3" name="GenBank/ UniProt" queryTableFieldId="3" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{9136C13A-5F12-467B-8D03-54873B085AAF}" uniqueName="4" name="PDB entry" queryTableFieldId="4" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{97528F30-5930-42FF-BDF1-E636B37D4C18}" uniqueName="5" name="NCBI BLAST" queryTableFieldId="5" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2089,11 +2422,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1EFA2EAD-6CEA-4FF0-A346-C43CD65E8C9E}" name="Table_0__3" displayName="Table_0__3" ref="A1:E14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{8F8168C5-DAB8-45E4-BA7B-840930009B31}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{58362782-B255-4ADB-9D8C-F32EFC3E4237}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{3316E2D8-1541-4ED6-97E1-A8CEDF6563BF}" uniqueName="2" name="Reference" queryTableFieldId="2" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{7B03119B-9D20-438F-B49B-84DCD5411628}" uniqueName="3" name="GenBank/ UniProt" queryTableFieldId="3" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{D30FA17D-466B-484C-A68F-D91D065D2032}" uniqueName="4" name="PDB entry" queryTableFieldId="4" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{6B2C07C3-93B3-4DE7-83D1-15E8419CDF5F}" uniqueName="5" name="NCBI BLAST" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{58362782-B255-4ADB-9D8C-F32EFC3E4237}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{3316E2D8-1541-4ED6-97E1-A8CEDF6563BF}" uniqueName="2" name="Reference" queryTableFieldId="2" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{7B03119B-9D20-438F-B49B-84DCD5411628}" uniqueName="3" name="GenBank/ UniProt" queryTableFieldId="3" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D30FA17D-466B-484C-A68F-D91D065D2032}" uniqueName="4" name="PDB entry" queryTableFieldId="4" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{6B2C07C3-93B3-4DE7-83D1-15E8419CDF5F}" uniqueName="5" name="NCBI BLAST" queryTableFieldId="5" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2103,12 +2436,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A50E6E5-08BD-4608-8305-A1B3D23E5606}" name="Table_0__4" displayName="Table_0__4" ref="A1:F27" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F27" xr:uid="{AE9FEB21-A0DA-4173-880E-C9E17C4A2322}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{005CBE57-C6BB-45F8-8B82-C6B7A8648BD3}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{BE934229-7B3D-439A-893A-D7786092AEE5}" uniqueName="2" name="EC number" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F93B475B-2E65-4519-9704-5EAEF9DD9CBA}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{EF3A8167-CEDC-4582-ADF3-6EE8924E74DE}" uniqueName="4" name="GenBank/ UniProt" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{75227A2C-6F02-4672-BF64-6F3B71F0D48C}" uniqueName="5" name="PDB entry" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{9D604279-0DDC-40BD-9AE2-44CAC82E0661}" uniqueName="6" name="NCBI BLAST" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{005CBE57-C6BB-45F8-8B82-C6B7A8648BD3}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{BE934229-7B3D-439A-893A-D7786092AEE5}" uniqueName="2" name="EC number" queryTableFieldId="2" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{F93B475B-2E65-4519-9704-5EAEF9DD9CBA}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{EF3A8167-CEDC-4582-ADF3-6EE8924E74DE}" uniqueName="4" name="GenBank/ UniProt" queryTableFieldId="4" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{75227A2C-6F02-4672-BF64-6F3B71F0D48C}" uniqueName="5" name="PDB entry" queryTableFieldId="5" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{9D604279-0DDC-40BD-9AE2-44CAC82E0661}" uniqueName="6" name="NCBI BLAST" queryTableFieldId="6" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2118,12 +2451,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DD962EB-7553-439E-B28A-F4C899822AC5}" name="Table_0__5" displayName="Table_0__5" ref="A1:F20" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F20" xr:uid="{D8AC84F0-E1B7-4532-8B26-4AF00E383B37}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{32B88976-BD68-4A18-885A-0FEEC85AF39D}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{1FE75C15-C0B3-4B23-87C6-846DCE840CC6}" uniqueName="2" name="location/comment" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{89383F3E-39AD-49B6-938F-2BFB7D06F3FB}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{375C7D76-B127-4A69-B8EA-0B9FB0C58FEE}" uniqueName="4" name="GenBank/ UniProt" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2352BC06-4E3B-4A75-83EF-E7C93431E57E}" uniqueName="5" name="PDB entry" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{750C7E61-8C27-4B4B-B26F-33AB0D05A9E2}" uniqueName="6" name="NCBI BLAST" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{32B88976-BD68-4A18-885A-0FEEC85AF39D}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{1FE75C15-C0B3-4B23-87C6-846DCE840CC6}" uniqueName="2" name="location/comment" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{89383F3E-39AD-49B6-938F-2BFB7D06F3FB}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{375C7D76-B127-4A69-B8EA-0B9FB0C58FEE}" uniqueName="4" name="GenBank/ UniProt" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{2352BC06-4E3B-4A75-83EF-E7C93431E57E}" uniqueName="5" name="PDB entry" queryTableFieldId="5" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{750C7E61-8C27-4B4B-B26F-33AB0D05A9E2}" uniqueName="6" name="NCBI BLAST" queryTableFieldId="6" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2133,12 +2466,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E45ACE34-124F-4350-AC03-F258F449568A}" name="Table_0__6" displayName="Table_0__6" ref="A1:F17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F17" xr:uid="{4443DBE3-81E8-4E8E-9446-87377929E623}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{554FDC9F-713D-4014-9C44-026F8B32A6C7}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0EE6AA15-FA06-4B40-A7FD-0BC729E21700}" uniqueName="2" name="EC number" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E63C7EA8-073D-4300-9D3E-515475DB8AA2}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{41910458-7992-40A0-A9E8-847B1D55EAB8}" uniqueName="4" name="GenBank/ UniProt/MGnify" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D87769C3-303E-4081-818E-9A4B77D1D68B}" uniqueName="5" name="PDB entry" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7B3AD799-F107-46FD-8CA7-6237A8174D4B}" uniqueName="6" name="NCBI BLAST" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{554FDC9F-713D-4014-9C44-026F8B32A6C7}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{0EE6AA15-FA06-4B40-A7FD-0BC729E21700}" uniqueName="2" name="EC number" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{E63C7EA8-073D-4300-9D3E-515475DB8AA2}" uniqueName="3" name="Reference" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{41910458-7992-40A0-A9E8-847B1D55EAB8}" uniqueName="4" name="GenBank/ UniProt/MGnify" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D87769C3-303E-4081-818E-9A4B77D1D68B}" uniqueName="5" name="PDB entry" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{7B3AD799-F107-46FD-8CA7-6237A8174D4B}" uniqueName="6" name="NCBI BLAST" queryTableFieldId="6" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2148,11 +2481,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{48FD401D-1CFF-4031-B272-6CB7BD9E0FE4}" name="Table_0__7" displayName="Table_0__7" ref="A1:E11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E11" xr:uid="{0E4EFCE7-EBA7-43BE-9C1C-F5F66A471F73}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ABB7B3BF-47B3-4597-BA04-235ACD743466}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1F5285A7-39AC-4145-96BB-7421CDA1ACEA}" uniqueName="2" name="Reference" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E82EC771-A1C3-422D-8A2B-75C7CA909058}" uniqueName="3" name="GenBank/ UniProt" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E2906D3A-2CFB-48C3-8CAC-5631D3170940}" uniqueName="4" name="PDB entry" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5C1D5A71-702B-4488-87AC-E7625717C75A}" uniqueName="5" name="NCBI BLAST" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{ABB7B3BF-47B3-4597-BA04-235ACD743466}" uniqueName="1" name="Microbial host/enzyme/gene" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1F5285A7-39AC-4145-96BB-7421CDA1ACEA}" uniqueName="2" name="Reference" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E82EC771-A1C3-422D-8A2B-75C7CA909058}" uniqueName="3" name="GenBank/ UniProt" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E2906D3A-2CFB-48C3-8CAC-5631D3170940}" uniqueName="4" name="PDB entry" queryTableFieldId="4" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{5C1D5A71-702B-4488-87AC-E7625717C75A}" uniqueName="5" name="NCBI BLAST" queryTableFieldId="5" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2421,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AC7775-2461-48A4-AA5C-8604E89E6300}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H44"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2432,6 +2765,7 @@
     <col min="2" max="2" width="81.140625" customWidth="1"/>
     <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.85546875" customWidth="1"/>
@@ -2440,30 +2774,30 @@
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -2472,16 +2806,19 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="M1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="N1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2495,16 +2832,16 @@
         <v>1547922</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -2513,16 +2850,17 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2536,16 +2874,16 @@
         <v>698738</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
@@ -2560,10 +2898,11 @@
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2586,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
@@ -2601,10 +2940,11 @@
         <v>20</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2621,13 +2961,13 @@
         <v>404</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -2642,10 +2982,11 @@
         <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2653,7 +2994,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D6" s="6">
         <v>50741</v>
@@ -2665,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
@@ -2677,13 +3018,14 @@
         <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2691,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D7" s="6">
         <v>50741</v>
@@ -2703,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
@@ -2715,13 +3057,14 @@
         <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +3082,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>31</v>
@@ -2754,10 +3097,11 @@
         <v>33</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2775,7 +3119,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
@@ -2790,10 +3134,11 @@
         <v>36</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2801,20 +3146,20 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" t="s">
         <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>37</v>
@@ -2829,10 +3174,11 @@
         <v>40</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" t="s">
@@ -2850,7 +3196,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>42</v>
@@ -2865,10 +3211,11 @@
         <v>45</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2876,22 +3223,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D12" s="6">
         <v>77152</v>
       </c>
       <c r="E12" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>46</v>
@@ -2906,10 +3253,11 @@
         <v>48</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2923,13 +3271,13 @@
         <v>301</v>
       </c>
       <c r="E13" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>51</v>
@@ -2944,10 +3292,11 @@
         <v>53</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2961,13 +3310,13 @@
         <v>306</v>
       </c>
       <c r="E14" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>54</v>
@@ -2982,10 +3331,11 @@
         <v>55</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2993,109 +3343,113 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" t="s">
-        <v>493</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="D15" s="7">
+        <v>118613</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>488</v>
-      </c>
-      <c r="E16" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" t="s">
-        <v>489</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" t="s">
+        <v>478</v>
+      </c>
       <c r="E17" t="s">
-        <v>487</v>
+        <v>415</v>
+      </c>
+      <c r="F17" t="s">
+        <v>479</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3103,86 +3457,85 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" t="s">
-        <v>416</v>
-      </c>
-      <c r="F19" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>471</v>
+        <v>571</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F20" t="s">
         <v>417</v>
@@ -3191,627 +3544,647 @@
         <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>419</v>
+        <v>571</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="F21" t="s">
+        <v>417</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" s="6">
-        <v>269800</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
-        <v>422</v>
-      </c>
-      <c r="F22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>421</v>
+        <v>574</v>
       </c>
       <c r="D23" s="6">
         <v>269800</v>
       </c>
       <c r="E23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" s="6">
+        <v>269800</v>
+      </c>
+      <c r="E24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F24" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E24" t="s">
-        <v>426</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="M24" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>425</v>
+        <v>572</v>
       </c>
       <c r="D25" s="6">
         <v>2021</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="M25" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>572</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2021</v>
+      </c>
       <c r="E26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="L26" s="1"/>
       <c r="M26" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" s="6">
-        <v>665004</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>473</v>
+        <v>576</v>
       </c>
       <c r="D29" s="6">
         <v>665004</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="D30" s="6">
-        <v>471852</v>
+        <v>665004</v>
       </c>
       <c r="E30" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="D31" s="6">
         <v>471852</v>
       </c>
       <c r="E31" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>101</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D32" s="6">
+        <v>471852</v>
+      </c>
+      <c r="E32" t="s">
+        <v>430</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="M32" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D33" s="6">
         <v>483545</v>
       </c>
-      <c r="E32" t="s">
-        <v>435</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D33" s="5"/>
       <c r="E33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>475</v>
+        <v>579</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" t="s">
-        <v>438</v>
-      </c>
-      <c r="F34" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="M34" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>436</v>
+        <v>580</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F35" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>476</v>
+        <v>579</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" t="s">
-        <v>444</v>
+        <v>435</v>
+      </c>
+      <c r="F36" t="s">
+        <v>436</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3819,75 +4192,75 @@
         <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D37" s="6">
+        <v>466</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" t="s">
+        <v>439</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="6">
         <v>1755</v>
       </c>
-      <c r="E37" t="s">
-        <v>445</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="E38" t="s">
+        <v>440</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D38" s="6">
-        <v>2211356</v>
-      </c>
-      <c r="E38" t="s">
-        <v>447</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L38" s="1" t="s">
-        <v>128</v>
+        <v>496</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -3895,229 +4268,2334 @@
         <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D39" s="6">
-        <v>266749</v>
+        <v>2211356</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="s">
-        <v>450</v>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>443</v>
+      </c>
+      <c r="D40" s="6">
+        <v>266749</v>
+      </c>
       <c r="E40" t="s">
-        <v>451</v>
-      </c>
-      <c r="F40" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>445</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" t="s">
+        <v>446</v>
+      </c>
+      <c r="F41" t="s">
+        <v>447</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="M41" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B41" t="s">
-        <v>494</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="B42" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="6">
         <v>2026714</v>
       </c>
-      <c r="E41" t="s">
-        <v>453</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="E42" t="s">
+        <v>448</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D42" s="6">
-        <v>84753</v>
-      </c>
-      <c r="E42" t="s">
-        <v>454</v>
-      </c>
-      <c r="F42" t="s">
-        <v>455</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="M42" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="D43" s="6">
-        <v>169388</v>
+        <v>84753</v>
       </c>
       <c r="E43" t="s">
-        <v>457</v>
+        <v>449</v>
+      </c>
+      <c r="F43" t="s">
+        <v>450</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>144</v>
+        <v>495</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D44" s="6">
-        <v>34413</v>
+        <v>169388</v>
       </c>
       <c r="E44" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D45" s="6">
+        <v>34413</v>
+      </c>
+      <c r="E45" t="s">
+        <v>454</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E46" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46" t="s">
+        <v>552</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2021</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D48" s="4">
+        <v>471852</v>
+      </c>
+      <c r="E48" t="s">
+        <v>429</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D49" s="4">
+        <v>471852</v>
+      </c>
+      <c r="E49" t="s">
+        <v>430</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E50" t="s">
+        <v>553</v>
+      </c>
+      <c r="F50" t="s">
+        <v>554</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>541</v>
-      </c>
+      <c r="H51" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D52" s="4">
+        <v>587753</v>
+      </c>
+      <c r="E52" t="s">
+        <v>555</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D53" s="4">
+        <v>294</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" s="4">
+        <v>220664</v>
+      </c>
+      <c r="E54" t="s">
+        <v>558</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D55" s="4">
+        <v>85828</v>
+      </c>
+      <c r="E55" t="s">
+        <v>559</v>
+      </c>
+      <c r="F55" t="s">
+        <v>545</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5481</v>
+      </c>
+      <c r="E56" t="s">
+        <v>551</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D57" s="4">
+        <v>314</v>
+      </c>
+      <c r="E57" t="s">
+        <v>565</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" s="4">
+        <v>314</v>
+      </c>
+      <c r="E58" t="s">
+        <v>566</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D59" s="4">
+        <v>208964</v>
+      </c>
+      <c r="E59" t="s">
+        <v>565</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D60" s="5">
+        <v>208964</v>
+      </c>
+      <c r="E60" t="s">
+        <v>566</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E61" t="s">
+        <v>585</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D62" s="4">
+        <v>37931</v>
+      </c>
+      <c r="E62" t="s">
+        <v>568</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D63" s="4">
+        <v>37931</v>
+      </c>
+      <c r="E63" t="s">
+        <v>584</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D64" s="4">
+        <v>37931</v>
+      </c>
+      <c r="E64" t="s">
+        <v>583</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D65" s="4">
+        <v>388924</v>
+      </c>
+      <c r="E65" t="s">
+        <v>582</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D66" s="4">
+        <v>388923</v>
+      </c>
+      <c r="E66" t="s">
+        <v>582</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E67" t="s">
+        <v>581</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D68" s="4">
+        <v>247156</v>
+      </c>
+      <c r="E68" t="s">
+        <v>581</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" t="s">
+        <v>597</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" t="s">
+        <v>597</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D71" s="4">
+        <v>31958</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" t="s">
+        <v>597</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D72" s="4">
+        <v>31958</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" t="s">
+        <v>597</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D73" s="4">
+        <v>31958</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" t="s">
+        <v>597</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>598</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>597</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D75" s="4">
+        <v>512</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" t="s">
+        <v>597</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>597</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E77" t="s">
+        <v>614</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>597</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E78" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>597</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>598</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1467</v>
+      </c>
+      <c r="E79" t="s">
+        <v>629</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H79" t="s">
+        <v>597</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>598</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1423</v>
+      </c>
+      <c r="E80" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" t="s">
+        <v>597</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>598</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1402</v>
+      </c>
+      <c r="E81" t="s">
+        <v>631</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" t="s">
+        <v>597</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>597</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>445</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E83" t="s">
+        <v>632</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>597</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>445</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E84" t="s">
+        <v>633</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>597</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>445</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E85" t="s">
+        <v>634</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>597</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>445</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>597</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>445</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" t="s">
+        <v>597</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>445</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" t="s">
+        <v>597</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" t="s">
+        <v>462</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D89" s="4">
+        <v>37998</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" t="s">
+        <v>597</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" t="s">
+        <v>462</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H90" t="s">
+        <v>597</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>626</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D91" s="4">
+        <v>87049</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>597</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="4">
+        <v>511</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D103" s="4">
+        <v>29443</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D104" s="4">
+        <v>29443</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D105" s="4">
+        <v>316</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="4">
+        <v>28572</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4133,7 +6611,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,7 +6890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BBC9D-460F-4297-A7AE-00E22110C8DD}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4673,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3C6262-6534-41B6-AED2-85C26B9B3563}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,7 +7719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6141D9-923B-417F-A347-CD51FCAB1510}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
